--- a/medicine/Psychotrope/Contenance_des_tonneaux/Contenance_des_tonneaux.xlsx
+++ b/medicine/Psychotrope/Contenance_des_tonneaux/Contenance_des_tonneaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire et la géographie des régions viticoles sont responsables des variations de tailles des tonneaux. 
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Héritée des anciennes mesures médiévales, cette disparité jointe à un chevauchement des volumes sous des dénominations différentes ne fut pas abolie sous la Révolution. Elle perdura jusqu'au milieu du XIXe siècle. Les négociants en vin de Paris, par l'intermédiaire de leur hebdomadaire nouvellement créé Le Journal de Bercy et de l'Entrepôt. Le Moniteur Vinicole lancèrent à l'adresse de Napoléon III une pétition qui fut publiée le 6 octobre 1856. Au nom des principaux propriétaires et négociants de France, elle demandait à l'empereur « l'unité des mesures de jaugeage des vins » et l'application du système métrique sur les contenants dont les volumes variaient « d'une contrée viticole à l'autre et souvent dans un même département ». Les pétitionnaires expliquaient qu'ils s'estimaient frustrés, chaque année, d'environ 1 000 000 d'hectolitres et demandaient instamment l'application des textes de lois de 1793, 1812 et 1837[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Héritée des anciennes mesures médiévales, cette disparité jointe à un chevauchement des volumes sous des dénominations différentes ne fut pas abolie sous la Révolution. Elle perdura jusqu'au milieu du XIXe siècle. Les négociants en vin de Paris, par l'intermédiaire de leur hebdomadaire nouvellement créé Le Journal de Bercy et de l'Entrepôt. Le Moniteur Vinicole lancèrent à l'adresse de Napoléon III une pétition qui fut publiée le 6 octobre 1856. Au nom des principaux propriétaires et négociants de France, elle demandait à l'empereur « l'unité des mesures de jaugeage des vins » et l'application du système métrique sur les contenants dont les volumes variaient « d'une contrée viticole à l'autre et souvent dans un même département ». Les pétitionnaires expliquaient qu'ils s'estimaient frustrés, chaque année, d'environ 1 000 000 d'hectolitres et demandaient instamment l'application des textes de lois de 1793, 1812 et 1837.
 Avant leur standardisation grâce à l'extension du commerce vers le reste de la France puis l'Europe, l'utilisation des contenants est régionale, les différents noms et volumes s'en retrouvent multipliés. La distribution des contenants illustre les volumes (ex : 228 L) observant le plus de variabilité dans leurs dénomination, ce qui représente une utilisation favorite de ce volume dans des points géographiques divers.
 Aujourd'hui, il persiste encore des différences ancrées, tels le fût bourguignon de 228 L, et son équivalent, la barrique bordelaise de 225 L.
 </t>
@@ -544,7 +558,9 @@
           <t>Multiples des volumes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les différentes variations des capacités sont souvent des multiples, correspondant alors au quart, au demi, ou au double de la contenance usuelle utilisée dans une région. Cela a pour conséquence d'augmenter la diversité des volumes.
 Par exemple pour la pièce bourguignonne :
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
